--- a/deliverable3/Burndown_Chart.xlsx
+++ b/deliverable3/Burndown_Chart.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kelly\Desktop\f16\CSCC01\team25-Project\deliverable3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>USER STORY</t>
   </si>
@@ -62,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +157,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -197,6 +195,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -205,25 +204,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -232,10 +212,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.212501556813307E-2"/>
-          <c:y val="0.10154686380337839"/>
-          <c:w val="0.93854282274469647"/>
-          <c:h val="0.69733475672799738"/>
+          <c:x val="0.0421250155681331"/>
+          <c:y val="0.101546863803378"/>
+          <c:w val="0.938542822744697"/>
+          <c:h val="0.697334756727997"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -280,112 +260,112 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>42660</c:v>
+                  <c:v>42660.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42661</c:v>
+                  <c:v>42661.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42662</c:v>
+                  <c:v>42662.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42663</c:v>
+                  <c:v>42663.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42664</c:v>
+                  <c:v>42664.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42665</c:v>
+                  <c:v>42665.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42666</c:v>
+                  <c:v>42666.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42667</c:v>
+                  <c:v>42667.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42668</c:v>
+                  <c:v>42668.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42669</c:v>
+                  <c:v>42669.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42670</c:v>
+                  <c:v>42670.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42671</c:v>
+                  <c:v>42671.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42672</c:v>
+                  <c:v>42672.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42673</c:v>
+                  <c:v>42673.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42674</c:v>
+                  <c:v>42674.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42675</c:v>
+                  <c:v>42675.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42676</c:v>
+                  <c:v>42676.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42677</c:v>
+                  <c:v>42677.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42678</c:v>
+                  <c:v>42678.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42679</c:v>
+                  <c:v>42679.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42680</c:v>
+                  <c:v>42680.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42681</c:v>
+                  <c:v>42681.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42682</c:v>
+                  <c:v>42682.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42683</c:v>
+                  <c:v>42683.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42684</c:v>
+                  <c:v>42684.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42685</c:v>
+                  <c:v>42685.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42686</c:v>
+                  <c:v>42686.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42687</c:v>
+                  <c:v>42687.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42688</c:v>
+                  <c:v>42688.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42689</c:v>
+                  <c:v>42689.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42690</c:v>
+                  <c:v>42690.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42691</c:v>
+                  <c:v>42691.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42692</c:v>
+                  <c:v>42692.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42693</c:v>
+                  <c:v>42693.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42694</c:v>
+                  <c:v>42694.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42695</c:v>
+                  <c:v>42695.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -397,118 +377,118 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.257142857142867</c:v>
+                  <c:v>93.25714285714287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90.51428571428572</c:v>
+                  <c:v>90.51428571428571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.771428571428572</c:v>
+                  <c:v>87.77142857142857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.028571428571439</c:v>
+                  <c:v>85.02857142857144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.285714285714306</c:v>
+                  <c:v>82.2857142857143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>79.542857142857159</c:v>
+                  <c:v>79.54285714285716</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.800000000000011</c:v>
+                  <c:v>76.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.057142857142878</c:v>
+                  <c:v>74.05714285714288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.314285714285745</c:v>
+                  <c:v>71.31428571428574</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68.571428571428598</c:v>
+                  <c:v>68.5714285714286</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>65.82857142857145</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63.085714285714317</c:v>
+                  <c:v>63.08571428571432</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.342857142857177</c:v>
+                  <c:v>60.34285714285718</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>57.600000000000037</c:v>
+                  <c:v>57.60000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.857142857142897</c:v>
+                  <c:v>54.8571428571429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52.114285714285757</c:v>
+                  <c:v>52.11428571428576</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49.371428571428616</c:v>
+                  <c:v>49.37142857142862</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46.628571428571476</c:v>
+                  <c:v>46.62857142857147</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.885714285714336</c:v>
+                  <c:v>43.88571428571434</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>41.142857142857196</c:v>
+                  <c:v>41.1428571428572</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>38.400000000000055</c:v>
+                  <c:v>38.40000000000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.657142857142915</c:v>
+                  <c:v>35.65714285714292</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.914285714285775</c:v>
+                  <c:v>32.91428571428577</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>30.171428571428635</c:v>
+                  <c:v>30.17142857142863</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.428571428571502</c:v>
+                  <c:v>27.4285714285715</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24.685714285714354</c:v>
+                  <c:v>24.68571428571435</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21.942857142857207</c:v>
+                  <c:v>21.94285714285721</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.200000000000074</c:v>
+                  <c:v>19.20000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.457142857142941</c:v>
+                  <c:v>16.45714285714294</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.714285714285793</c:v>
+                  <c:v>13.71428571428579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.971428571428646</c:v>
+                  <c:v>10.97142857142865</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8.228571428571513</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.4857142857143799</c:v>
+                  <c:v>5.48571428571438</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.7428571428572326</c:v>
+                  <c:v>2.742857142857232</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C5A8-4702-A07A-092BEE0F2C1F}"/>
             </c:ext>
@@ -553,112 +533,112 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>42660</c:v>
+                  <c:v>42660.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42661</c:v>
+                  <c:v>42661.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42662</c:v>
+                  <c:v>42662.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42663</c:v>
+                  <c:v>42663.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42664</c:v>
+                  <c:v>42664.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42665</c:v>
+                  <c:v>42665.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42666</c:v>
+                  <c:v>42666.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42667</c:v>
+                  <c:v>42667.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42668</c:v>
+                  <c:v>42668.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42669</c:v>
+                  <c:v>42669.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42670</c:v>
+                  <c:v>42670.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42671</c:v>
+                  <c:v>42671.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42672</c:v>
+                  <c:v>42672.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42673</c:v>
+                  <c:v>42673.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42674</c:v>
+                  <c:v>42674.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42675</c:v>
+                  <c:v>42675.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42676</c:v>
+                  <c:v>42676.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42677</c:v>
+                  <c:v>42677.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42678</c:v>
+                  <c:v>42678.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42679</c:v>
+                  <c:v>42679.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42680</c:v>
+                  <c:v>42680.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42681</c:v>
+                  <c:v>42681.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42682</c:v>
+                  <c:v>42682.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42683</c:v>
+                  <c:v>42683.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42684</c:v>
+                  <c:v>42684.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42685</c:v>
+                  <c:v>42685.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42686</c:v>
+                  <c:v>42686.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42687</c:v>
+                  <c:v>42687.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42688</c:v>
+                  <c:v>42688.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42689</c:v>
+                  <c:v>42689.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42690</c:v>
+                  <c:v>42690.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42691</c:v>
+                  <c:v>42691.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42692</c:v>
+                  <c:v>42692.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42693</c:v>
+                  <c:v>42693.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42694</c:v>
+                  <c:v>42694.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42695</c:v>
+                  <c:v>42695.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,11 +649,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C5A8-4702-A07A-092BEE0F2C1F}"/>
             </c:ext>
@@ -687,12 +682,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="370423744"/>
-        <c:axId val="370422760"/>
+        <c:axId val="2123968312"/>
+        <c:axId val="2123971736"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="370423744"/>
+        <c:axId val="2123968312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,18 +724,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370422760"/>
+        <c:crossAx val="2123971736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="370422760"/>
+        <c:axId val="2123971736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="96"/>
-          <c:min val="0"/>
+          <c:max val="96.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -798,10 +794,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370423744"/>
+        <c:crossAx val="2123968312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
+        <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -813,6 +809,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -879,595 +876,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1572,7 +980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1624,7 +1032,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1818,7 +1226,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1828,21 +1236,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="35" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1862,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1878,8 +1286,11 @@
       <c r="F2">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1895,8 +1306,11 @@
       <c r="F3">
         <v>93.257142857142867</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1912,8 +1326,11 @@
       <c r="F4">
         <v>90.51428571428572</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1929,8 +1346,11 @@
       <c r="F5">
         <v>87.771428571428572</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1946,8 +1366,11 @@
       <c r="F6">
         <v>85.028571428571439</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1964,7 +1387,7 @@
         <v>82.285714285714306</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1981,7 +1404,7 @@
         <v>79.542857142857159</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1998,7 +1421,7 @@
         <v>76.800000000000011</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2015,7 +1438,7 @@
         <v>74.057142857142878</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2032,7 +1455,7 @@
         <v>71.314285714285745</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2049,7 +1472,7 @@
         <v>68.571428571428598</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2066,7 +1489,7 @@
         <v>65.82857142857145</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2083,7 +1506,7 @@
         <v>63.085714285714317</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2100,7 +1523,7 @@
         <v>60.342857142857177</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2117,7 +1540,7 @@
         <v>57.600000000000037</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2134,7 +1557,7 @@
         <v>54.857142857142897</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2151,7 +1574,7 @@
         <v>52.114285714285757</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2168,7 +1591,7 @@
         <v>49.371428571428616</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2185,7 +1608,7 @@
         <v>46.628571428571476</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2201,7 +1624,7 @@
         <v>43.885714285714336</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6">
       <c r="E22" s="2">
         <v>42680</v>
       </c>
@@ -2209,7 +1632,7 @@
         <v>41.142857142857196</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6">
       <c r="E23" s="2">
         <v>42681</v>
       </c>
@@ -2217,7 +1640,7 @@
         <v>38.400000000000055</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6">
       <c r="E24" s="2">
         <v>42682</v>
       </c>
@@ -2225,7 +1648,7 @@
         <v>35.657142857142915</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="E25" s="2">
         <v>42683</v>
       </c>
@@ -2233,7 +1656,7 @@
         <v>32.914285714285775</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6">
       <c r="E26" s="2">
         <v>42684</v>
       </c>
@@ -2241,7 +1664,7 @@
         <v>30.171428571428635</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6">
       <c r="E27" s="2">
         <v>42685</v>
       </c>
@@ -2249,7 +1672,7 @@
         <v>27.428571428571502</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6">
       <c r="E28" s="2">
         <v>42686</v>
       </c>
@@ -2257,7 +1680,7 @@
         <v>24.685714285714354</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="E29" s="2">
         <v>42687</v>
       </c>
@@ -2265,7 +1688,7 @@
         <v>21.942857142857207</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6">
       <c r="E30" s="2">
         <v>42688</v>
       </c>
@@ -2273,7 +1696,7 @@
         <v>19.200000000000074</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="E31" s="2">
         <v>42689</v>
       </c>
@@ -2281,7 +1704,7 @@
         <v>16.457142857142941</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6">
       <c r="E32" s="2">
         <v>42690</v>
       </c>
@@ -2289,7 +1712,7 @@
         <v>13.714285714285793</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:6">
       <c r="E33" s="2">
         <v>42691</v>
       </c>
@@ -2297,7 +1720,7 @@
         <v>10.971428571428646</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:6">
       <c r="E34" s="2">
         <v>42692</v>
       </c>
@@ -2305,7 +1728,7 @@
         <v>8.228571428571513</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:6">
       <c r="E35" s="2">
         <v>42693</v>
       </c>
@@ -2313,7 +1736,7 @@
         <v>5.4857142857143799</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:6">
       <c r="E36" s="2">
         <v>42694</v>
       </c>
@@ -2321,7 +1744,7 @@
         <v>2.7428571428572326</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:6">
       <c r="E37" s="2">
         <v>42695</v>
       </c>
@@ -2336,5 +1759,10 @@
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>